--- a/Testing/Tests - Casos de Prueba - Spring 1.xlsx
+++ b/Testing/Tests - Casos de Prueba - Spring 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Proyecto Integrador\grupo-02\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomib\Documents\CTD\2022\4to bimestre\finalProject\grupo-02\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4728ED89-BE62-4599-A66E-C9D86C5D5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,10 +84,6 @@
     <t>Ingresar las credenciales y acceder</t>
   </si>
   <si>
-    <t xml:space="preserve">Achicar el tama;o de la pantalla a tablet y luego a movile
-</t>
-  </si>
-  <si>
     <t>Que la vista se adapte según el tama;o seleccionado</t>
   </si>
   <si>
@@ -205,12 +202,15 @@
   </si>
   <si>
     <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Achicar el tama;o de la pantalla a tablet y luego a mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,102 +422,102 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,639 +819,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="12">
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12">
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12">
+      <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23">
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23">
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="7">
         <v>4</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="7">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23">
+      <c r="F23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
+      <c r="F24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23">
+      <c r="F25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="13">
         <v>4</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>7</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="15">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23">
-        <v>2</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="23">
-        <v>4</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>5</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="23">
-        <v>2</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="23">
-        <v>3</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23">
-        <v>4</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>6</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23">
-        <v>3</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="29">
-        <v>4</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>7</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="33">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="33">
-        <v>2</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="33">
-        <v>3</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="33">
-        <v>4</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -1467,9 +1425,51 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/Tests - Casos de Prueba - Spring 1.xlsx
+++ b/Testing/Tests - Casos de Prueba - Spring 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -204,7 +204,7 @@
     <t>Ser redirigido al home de la app con mi usuario</t>
   </si>
   <si>
-    <t>Grupo 2</t>
+    <t>Pato Alloco</t>
   </si>
 </sst>
 </file>
@@ -422,102 +422,102 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,639 +819,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="12">
+      <c r="A4" s="24"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12">
+      <c r="A5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12">
+      <c r="A6" s="24"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23">
+      <c r="A9" s="24"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23">
+      <c r="A10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="7">
         <v>4</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23">
+      <c r="A12" s="24"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
+      <c r="A13" s="24"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="7">
         <v>4</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23">
+      <c r="A16" s="24"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="23">
+      <c r="A17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="18"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="23">
+      <c r="A18" s="24"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="7">
         <v>4</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="23">
         <v>5</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="23">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="18"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="23">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="18"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="23">
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23">
+      <c r="A24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="18"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="29">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="13">
         <v>4</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>7</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="33">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="32"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="33">
-        <v>2</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="33">
-        <v>3</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="33">
-        <v>4</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -1467,6 +1395,48 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27">

--- a/Testing/Tests - Casos de Prueba - Spring 1.xlsx
+++ b/Testing/Tests - Casos de Prueba - Spring 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -326,6 +326,21 @@
   </si>
   <si>
     <t>test exploratorio es con la app funcionando, se va investigando mientras se usa la app</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Pediente</t>
+  </si>
+  <si>
+    <t>Estan los filtros pero falta funcionalidad</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -595,6 +610,144 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,28 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,122 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,42 +1061,42 @@
     <col min="7" max="7" width="39.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>7</v>
+      <c r="J1" s="69" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,121 +1106,123 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50">
+      <c r="A4" s="51"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50">
+      <c r="A5" s="51"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="21">
         <v>4</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50">
+      <c r="A6" s="51"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="21">
         <v>5</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50">
+      <c r="A7" s="51"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="21">
         <v>6</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="53">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="7">
@@ -1217,17 +1234,19 @@
       <c r="G8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
@@ -1237,139 +1256,141 @@
       <c r="G9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="50">
         <v>3</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50">
+      <c r="A14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="21">
         <v>2</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="48"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="53">
         <v>4</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="57" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="7">
@@ -1381,17 +1402,19 @@
       <c r="G18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="3">
         <v>2</v>
       </c>
@@ -1401,127 +1424,129 @@
       <c r="G19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="22"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="50">
         <v>5</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46" t="s">
+      <c r="H22" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="21">
         <v>2</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="48"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="48"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="53">
         <v>6</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="7">
@@ -1533,17 +1558,19 @@
       <c r="G27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26" t="s">
+      <c r="H27" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="7">
         <v>2</v>
       </c>
@@ -1553,15 +1580,15 @@
       <c r="G28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="7">
         <v>3</v>
       </c>
@@ -1571,15 +1598,15 @@
       <c r="G29" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="7">
         <v>4</v>
       </c>
@@ -1589,15 +1616,15 @@
       <c r="G30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="7">
         <v>5</v>
       </c>
@@ -1607,15 +1634,15 @@
       <c r="G31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="22"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="7">
         <v>4</v>
       </c>
@@ -1625,123 +1652,127 @@
       <c r="G32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="22"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="50">
         <v>7</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="18">
         <v>1</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46" t="s">
+      <c r="H34" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="40"/>
+      <c r="J34" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="42">
+      <c r="A35" s="51"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="18">
         <v>2</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="48"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="42">
+      <c r="A36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="18">
         <v>3</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="48"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="42">
+      <c r="A37" s="51"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="18">
         <v>4</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="48"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="65"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="53">
         <v>8</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="57" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7">
@@ -1753,17 +1784,19 @@
       <c r="G39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26" t="s">
+      <c r="H39" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="7">
         <v>2</v>
       </c>
@@ -1773,147 +1806,149 @@
       <c r="G40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="22"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="7">
         <v>3</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="22"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="56"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="7">
         <v>4</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="22"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="50">
         <v>9</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="18">
         <v>1</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46" t="s">
+      <c r="H44" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="42">
+      <c r="A45" s="51"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="18">
         <v>2</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="48"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="42">
+      <c r="A46" s="51"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="18">
         <v>3</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="48"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="42">
+      <c r="A47" s="51"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="18">
         <v>4</v>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="48"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
+      <c r="A49" s="64">
         <v>10</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="13">
@@ -1925,17 +1960,19 @@
       <c r="G49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35" t="s">
+      <c r="H49" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="62"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="13">
         <v>2</v>
       </c>
@@ -1945,15 +1982,15 @@
       <c r="G50" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="13">
         <v>3</v>
       </c>
@@ -1963,104 +2000,175 @@
       <c r="G51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="13">
         <v>4</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="45">
         <v>11</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="26">
         <v>1</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72" t="s">
+      <c r="H53" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="71"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="55">
+      <c r="A54" s="46"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="26">
         <v>2</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="55">
+      <c r="A55" s="46"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="26">
         <v>3</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="55">
+      <c r="A56" s="46"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="26">
         <v>4</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="H34:H37"/>
     <mergeCell ref="I44:I47"/>
     <mergeCell ref="J44:J47"/>
     <mergeCell ref="A53:A56"/>
@@ -2075,77 +2183,8 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
     <mergeCell ref="J49:J52"/>
     <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J3 J8 J18 J22 J49 J13 J27 J34 J39 J44 J53">
@@ -2160,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,38 +2223,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2225,21 +2264,21 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="53">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7">
@@ -2251,17 +2290,19 @@
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -2271,15 +2312,15 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -2287,16 +2328,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="37">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="16">
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -2305,12 +2346,12 @@
       <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -2328,15 +2369,15 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">

--- a/Testing/Tests - Casos de Prueba - Spring 1.xlsx
+++ b/Testing/Tests - Casos de Prueba - Spring 1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Ser redirigido al home de la app con mi usuario</t>
-  </si>
-  <si>
-    <t>Pato Alloco</t>
   </si>
   <si>
     <t>No Funtional Test</t>
@@ -325,9 +322,6 @@
     <t>Presionar el boton Iniciar Sesión</t>
   </si>
   <si>
-    <t>test exploratorio es con la app funcionando, se va investigando mientras se usa la app</t>
-  </si>
-  <si>
     <t>Finalizado</t>
   </si>
   <si>
@@ -341,6 +335,24 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver el footer en el home del sitio con el anio y copyrigth </t>
+  </si>
+  <si>
+    <t>ver el footer con el anio y copyright</t>
+  </si>
+  <si>
+    <t>Ver el footer en el home del sitio los iconos a las redes sociales</t>
+  </si>
+  <si>
+    <t>ver el footer con los iconos a las redes sociales</t>
   </si>
 </sst>
 </file>
@@ -371,7 +383,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +408,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -554,19 +578,100 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,14 +712,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,17 +775,74 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,67 +857,93 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:J47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,38 +1245,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="69" t="s">
-        <v>103</v>
+      <c r="J1" s="37" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,124 +1286,124 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="70"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="21">
-        <v>2</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="17">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="17">
+        <v>6</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="21">
-        <v>4</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="21">
-        <v>5</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="21">
-        <v>6</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="44"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>2</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="D8" s="60" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -1232,13 +1412,13 @@
         <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="J8" s="55"/>
     </row>
@@ -1246,152 +1426,152 @@
       <c r="A9" s="54"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="D13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="17">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="44"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="44"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="44"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="44"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>4</v>
       </c>
       <c r="B18" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>79</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -1400,13 +1580,13 @@
         <v>33</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>49</v>
+        <v>79</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="J18" s="55"/>
     </row>
@@ -1414,127 +1594,127 @@
       <c r="A19" s="54"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" s="56"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="39">
         <v>5</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="D22" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="18">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="21">
-        <v>2</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="44"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
@@ -1544,9 +1724,9 @@
         <v>18</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="7">
@@ -1558,11 +1738,11 @@
       <c r="G27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>49</v>
+      <c r="H27" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="J27" s="55"/>
     </row>
@@ -1570,197 +1750,197 @@
       <c r="A28" s="54"/>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="7">
         <v>2</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="7">
         <v>3</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="58"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="7">
         <v>4</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="58"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="7">
         <v>5</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="56"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="7">
         <v>4</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
+      <c r="A34" s="39">
         <v>7</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="14">
         <v>1</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>102</v>
+      <c r="H34" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="18">
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="14">
         <v>2</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="44"/>
+      <c r="G35" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="18">
+      <c r="A36" s="40"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="14">
         <v>3</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="18">
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="14">
         <v>4</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="44"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="36"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="53">
@@ -1772,7 +1952,7 @@
       <c r="C39" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="60" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7">
@@ -1784,11 +1964,11 @@
       <c r="G39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>49</v>
+      <c r="H39" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="J39" s="55"/>
     </row>
@@ -1796,7 +1976,7 @@
       <c r="A40" s="54"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="58"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="7">
         <v>2</v>
       </c>
@@ -1806,149 +1986,149 @@
       <c r="G40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
-      <c r="D41" s="58"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="7">
         <v>3</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
       <c r="J41" s="56"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
-      <c r="D42" s="58"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="7">
         <v>4</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
+      <c r="A44" s="39">
         <v>9</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="14">
         <v>1</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="43"/>
+      <c r="H44" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="18">
+      <c r="A45" s="40"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="14">
         <v>2</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="18">
+      <c r="A46" s="40"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="14">
         <v>3</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="44"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="18">
+      <c r="A47" s="40"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="14">
         <v>4</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="44"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
+      <c r="A49" s="69">
         <v>10</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="13">
@@ -1960,19 +2140,19 @@
       <c r="G49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="62"/>
+      <c r="H49" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="13">
         <v>2</v>
       </c>
@@ -1982,15 +2162,15 @@
       <c r="G50" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
     </row>
     <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="13">
         <v>3</v>
       </c>
@@ -2000,175 +2180,106 @@
       <c r="G51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="13">
         <v>4</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+      <c r="A53" s="64">
         <v>11</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="D53" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="E53" s="22">
+        <v>1</v>
+      </c>
+      <c r="F53" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="26">
-        <v>1</v>
-      </c>
-      <c r="F53" s="39" t="s">
+      <c r="G53" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="66"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="22">
+        <v>2</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+    </row>
+    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="22">
+        <v>3</v>
+      </c>
+      <c r="F55" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="J53" s="47"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="26">
-        <v>2</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-    </row>
-    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="26">
-        <v>3</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="27" t="s">
+      <c r="G55" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="26">
+      <c r="A56" s="65"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="22">
         <v>4</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="H34:H37"/>
     <mergeCell ref="I44:I47"/>
     <mergeCell ref="J44:J47"/>
     <mergeCell ref="A53:A56"/>
@@ -2185,6 +2296,75 @@
     <mergeCell ref="H44:H47"/>
     <mergeCell ref="J49:J52"/>
     <mergeCell ref="A49:A52"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J3 J8 J18 J22 J49 J13 J27 J34 J39 J44 J53">
@@ -2197,15 +2377,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -2219,42 +2399,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2264,137 +2444,283 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="85">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="61" t="s">
-        <v>100</v>
+      <c r="H4" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="3">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="86">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="56"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="3">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="86">
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="56"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="16">
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="87">
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="88">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
+      <c r="A9" s="78">
+        <v>2</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83">
+        <v>2</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83">
+        <v>3</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83">
+        <v>4</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
+        <v>3</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="76">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76">
+        <v>2</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76">
+        <v>3</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76">
+        <v>4</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="29">
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="H9:H12"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2403,7 +2729,7 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J4">
+    <dataValidation type="list" allowBlank="1" sqref="J4 J9 J13">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
